--- a/data/trans_bre/P1438_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1438_2023-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>3.643812043909652</v>
+        <v>3.64381204390965</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.5268836341493449</v>
+        <v>0.5268836341493447</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.204179016989691</v>
+        <v>1.441830132393862</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.1331090940656413</v>
+        <v>0.1677519631878068</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.875540555329922</v>
+        <v>6.039518139900025</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.023780074095459</v>
+        <v>1.061338425799975</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.024730785586772</v>
+        <v>4.024730785586773</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.8828632729936534</v>
+        <v>0.8828632729936537</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.246411636577434</v>
+        <v>2.158332079317733</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3977240679937694</v>
+        <v>0.3525702037380427</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.874725655514493</v>
+        <v>5.841981480680321</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.587526076055223</v>
+        <v>1.509492924485869</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.305205743256446</v>
+        <v>4.305205743256447</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1.322056662814285</v>
+        <v>1.322056662814286</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.259990487697311</v>
+        <v>2.255566653957736</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.5149711696507198</v>
+        <v>0.4629254194769382</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.337965400876687</v>
+        <v>6.389294335185623</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.78518867720344</v>
+        <v>2.732355326738638</v>
       </c>
     </row>
     <row r="13">
@@ -693,7 +693,7 @@
         <v>3.60089829079186</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.8465488126722053</v>
+        <v>0.8465488126722049</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.854421232822366</v>
+        <v>1.882729917285735</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3519606001599189</v>
+        <v>0.3511695769075357</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.200898066837591</v>
+        <v>5.239305063561832</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.509076059319871</v>
+        <v>1.540863793621846</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>3.891631031167283</v>
+        <v>3.891631031167284</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.8388071596284032</v>
+        <v>0.8388071596284036</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.765739246756556</v>
+        <v>2.853124286395485</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.5278852729055046</v>
+        <v>0.5533971891575004</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.829523612248877</v>
+        <v>4.826236154126687</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.14283260073516</v>
+        <v>1.159188379955158</v>
       </c>
     </row>
     <row r="19">
